--- a/teacher_info_2025_name-7-3-english.xlsx
+++ b/teacher_info_2025_name-7-3-english.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\python\paper\teacher_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\python\paper\teacher_analysis\teacher_cascade_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EDF573-1EF1-4B5E-B64C-D91ED4D09D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AC3C4E-190B-466E-8657-722A001F7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21" yWindow="21" windowWidth="20612" windowHeight="10972" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21" yWindow="21" windowWidth="20612" windowHeight="10972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="78">
   <si>
     <t>女</t>
   </si>
@@ -258,15 +258,19 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Teaching and Mentoring </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Social Service</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Competition Guidance</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching Cultivation </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Background</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1015,11 +1019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1052,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="16" customFormat="1" ht="14" customHeight="1" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1074,14 +1078,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -1090,7 +1094,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>
@@ -13546,7 +13550,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13604,14 +13608,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -13620,7 +13624,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>
@@ -26109,10 +26113,10 @@
   <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -26170,14 +26174,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -26186,7 +26190,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>
@@ -35806,11 +35810,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H63" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1:AD1"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
@@ -35869,14 +35873,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -35885,7 +35889,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>

--- a/teacher_info_2025_name-7-3-english.xlsx
+++ b/teacher_info_2025_name-7-3-english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\python\paper\teacher_analysis\teacher_cascade_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AC3C4E-190B-466E-8657-722A001F7584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBAC8A6-0578-4462-8FDB-088458F04E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21" yWindow="21" windowWidth="20612" windowHeight="10972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21" yWindow="21" windowWidth="20612" windowHeight="10972" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="77">
   <si>
     <t>女</t>
   </si>
@@ -247,10 +247,6 @@
   </si>
   <si>
     <t>degree</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic Information</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1019,11 +1015,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1056,7 +1052,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="16" customFormat="1" ht="14" customHeight="1" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1065,7 +1061,7 @@
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
       <c r="H1" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
@@ -1078,14 +1074,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -1094,7 +1090,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>
@@ -13550,7 +13546,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AK1"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13586,7 +13582,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="16" customFormat="1" ht="14" customHeight="1" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -13595,7 +13591,7 @@
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
       <c r="H1" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
@@ -13608,14 +13604,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -13624,7 +13620,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>
@@ -26113,10 +26109,10 @@
   <dimension ref="A1:AL83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AK1"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -26152,7 +26148,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="16" customFormat="1" ht="14" customHeight="1" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -26161,7 +26157,7 @@
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
       <c r="H1" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
@@ -26174,14 +26170,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -26190,7 +26186,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>
@@ -35810,11 +35806,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AK1"/>
+      <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
@@ -35851,7 +35847,7 @@
   <sheetData>
     <row r="1" spans="1:38" s="16" customFormat="1" ht="14" customHeight="1" thickBot="1">
       <c r="A1" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -35860,7 +35856,7 @@
       <c r="F1" s="32"/>
       <c r="G1" s="33"/>
       <c r="H1" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
@@ -35873,14 +35869,14 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="38"/>
       <c r="S1" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T1" s="40"/>
       <c r="U1" s="40"/>
       <c r="V1" s="40"/>
       <c r="W1" s="40"/>
       <c r="X1" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
@@ -35889,7 +35885,7 @@
       <c r="AC1" s="32"/>
       <c r="AD1" s="32"/>
       <c r="AE1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF1" s="32"/>
       <c r="AG1" s="34"/>
